--- a/docs/mcode-r4/obf-TotalRadiationDoseDelivered-extension.xlsx
+++ b/docs/mcode-r4/obf-TotalRadiationDoseDelivered-extension.xlsx
@@ -349,7 +349,7 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
-    <t>Gy</t>
+    <t>cGy</t>
   </si>
   <si>
     <t>Quantity.code</t>
